--- a/data/orangehrmData.xlsx
+++ b/data/orangehrmData.xlsx
@@ -1,14 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EAB840D-EEF8-4BF8-A77D-A8D865BACBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7252DE27-7723-44B8-AFF8-47F5E45F100C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="117">
   <si>
     <t>key</t>
   </si>
@@ -156,20 +159,236 @@
     <t>Project Admin Name</t>
   </si>
   <si>
-    <t>Alan The Bugfinder</t>
+    <t>Charlie Carter</t>
   </si>
   <si>
     <t>costumer2</t>
   </si>
   <si>
     <t>Internal</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>mika</t>
+  </si>
+  <si>
+    <t>mika123</t>
+  </si>
+  <si>
+    <t>refsi</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>file name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amar </t>
+  </si>
+  <si>
+    <t>1823</t>
+  </si>
+  <si>
+    <t>idourd</t>
+  </si>
+  <si>
+    <t>amar idourd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">farid </t>
+  </si>
+  <si>
+    <t>1452</t>
+  </si>
+  <si>
+    <t>said</t>
+  </si>
+  <si>
+    <t>farid said</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lora </t>
+  </si>
+  <si>
+    <t>7889</t>
+  </si>
+  <si>
+    <t>lora said</t>
+  </si>
+  <si>
+    <t>sami</t>
+  </si>
+  <si>
+    <t>2334</t>
+  </si>
+  <si>
+    <t>achouk</t>
+  </si>
+  <si>
+    <t>sami achouk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jasmin </t>
+  </si>
+  <si>
+    <t>8125</t>
+  </si>
+  <si>
+    <t>aqoua</t>
+  </si>
+  <si>
+    <t>jasmin aqoua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kamal </t>
+  </si>
+  <si>
+    <t>7991</t>
+  </si>
+  <si>
+    <t>akli</t>
+  </si>
+  <si>
+    <t>kamal akli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chahinaz </t>
+  </si>
+  <si>
+    <t>9225</t>
+  </si>
+  <si>
+    <t>Wodrow</t>
+  </si>
+  <si>
+    <t>chahinaz Wodrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smith </t>
+  </si>
+  <si>
+    <t>7112</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Smith Smith</t>
+  </si>
+  <si>
+    <t>Amastan</t>
+  </si>
+  <si>
+    <t>8900</t>
+  </si>
+  <si>
+    <t>zamoum</t>
+  </si>
+  <si>
+    <t>NicePng_businessman-png_77391</t>
+  </si>
+  <si>
+    <t>Leave Type</t>
+  </si>
+  <si>
+    <t>FromDate</t>
+  </si>
+  <si>
+    <t>ToDate</t>
+  </si>
+  <si>
+    <t>Lisa Andrews</t>
+  </si>
+  <si>
+    <t>US - Personal</t>
+  </si>
+  <si>
+    <t>2023-04-30</t>
+  </si>
+  <si>
+    <t>2023-05-04</t>
+  </si>
+  <si>
+    <t>Linda Jane Anderson</t>
+  </si>
+  <si>
+    <t>CAN - Personal</t>
+  </si>
+  <si>
+    <t>2023-05-02</t>
+  </si>
+  <si>
+    <t>2023-05-03</t>
+  </si>
+  <si>
+    <t>Odis Adalwin</t>
+  </si>
+  <si>
+    <t>US - Vaction</t>
+  </si>
+  <si>
+    <t>2023-02-02</t>
+  </si>
+  <si>
+    <t>2023-02-07</t>
+  </si>
+  <si>
+    <t>Cecil Bonaparte</t>
+  </si>
+  <si>
+    <t>2023-04-02</t>
+  </si>
+  <si>
+    <t>2023-04-06</t>
+  </si>
+  <si>
+    <t>2023-02-05</t>
+  </si>
+  <si>
+    <t>Chenzira Chuki</t>
+  </si>
+  <si>
+    <t>Paul Collings</t>
+  </si>
+  <si>
+    <t>2023-03-02</t>
+  </si>
+  <si>
+    <t>2023-03-06</t>
+  </si>
+  <si>
+    <t>Dominic Chase</t>
+  </si>
+  <si>
+    <t>US -  Vaction</t>
+  </si>
+  <si>
+    <t>2023-02-10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +406,19 @@
       <sz val="10"/>
       <color rgb="FFA9B7C6"/>
       <name val="Courier New"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF64728C"/>
+      <name val="Nunito Sans"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -210,11 +442,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -728,4 +966,362 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DBDAEC-38F2-4C8B-A7EB-2315A7EB0C91}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F2A7B0-BEF2-4260-8257-31FC2B7FF305}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F4A3639-CCA0-4A94-AD00-8D71C962DA75}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75">
+      <c r="A2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75">
+      <c r="A8" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/orangehrmData.xlsx
+++ b/data/orangehrmData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7252DE27-7723-44B8-AFF8-47F5E45F100C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{173DE68F-6E17-495E-AE19-4E4DF21363B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -309,57 +309,57 @@
     <t>Leave Type</t>
   </si>
   <si>
+    <t>ToDate</t>
+  </si>
+  <si>
     <t>FromDate</t>
   </si>
   <si>
-    <t>ToDate</t>
-  </si>
-  <si>
     <t>Lisa Andrews</t>
   </si>
   <si>
     <t>US - Personal</t>
   </si>
   <si>
+    <t>2023-05-04</t>
+  </si>
+  <si>
     <t>2023-04-30</t>
   </si>
   <si>
-    <t>2023-05-04</t>
-  </si>
-  <si>
     <t>Linda Jane Anderson</t>
   </si>
   <si>
     <t>CAN - Personal</t>
   </si>
   <si>
+    <t>2023-05-03</t>
+  </si>
+  <si>
     <t>2023-05-02</t>
   </si>
   <si>
-    <t>2023-05-03</t>
-  </si>
-  <si>
     <t>Odis Adalwin</t>
   </si>
   <si>
     <t>US - Vaction</t>
   </si>
   <si>
+    <t>2023-02-07</t>
+  </si>
+  <si>
     <t>2023-02-02</t>
   </si>
   <si>
-    <t>2023-02-07</t>
-  </si>
-  <si>
     <t>Cecil Bonaparte</t>
   </si>
   <si>
+    <t>2023-04-06</t>
+  </si>
+  <si>
     <t>2023-04-02</t>
   </si>
   <si>
-    <t>2023-04-06</t>
-  </si>
-  <si>
     <t>2023-02-05</t>
   </si>
   <si>
@@ -369,10 +369,10 @@
     <t>Paul Collings</t>
   </si>
   <si>
+    <t>2023-03-06</t>
+  </si>
+  <si>
     <t>2023-03-02</t>
-  </si>
-  <si>
-    <t>2023-03-06</t>
   </si>
   <si>
     <t>Dominic Chase</t>
@@ -442,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -450,9 +450,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1023,7 +1022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F2A7B0-BEF2-4260-8257-31FC2B7FF305}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -1184,15 +1183,15 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1213,7 +1212,7 @@
       <c r="A2" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1227,7 +1226,7 @@
       <c r="A3" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1244,10 +1243,10 @@
       <c r="B4" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1255,7 +1254,7 @@
       <c r="A5" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1272,32 +1271,32 @@
       <c r="B6" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75">
       <c r="A8" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1314,11 +1313,11 @@
       <c r="B9" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>116</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/data/orangehrmData.xlsx
+++ b/data/orangehrmData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26202"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{173DE68F-6E17-495E-AE19-4E4DF21363B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{588F2F6E-C7C0-42E8-9107-83FEB3AFA3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -339,6 +339,15 @@
     <t>2023-05-02</t>
   </si>
   <si>
+    <t>Cecil Bonaparte</t>
+  </si>
+  <si>
+    <t>2023-04-06</t>
+  </si>
+  <si>
+    <t>2023-04-02</t>
+  </si>
+  <si>
     <t>Odis Adalwin</t>
   </si>
   <si>
@@ -349,15 +358,6 @@
   </si>
   <si>
     <t>2023-02-02</t>
-  </si>
-  <si>
-    <t>Cecil Bonaparte</t>
-  </si>
-  <si>
-    <t>2023-04-06</t>
-  </si>
-  <si>
-    <t>2023-04-02</t>
   </si>
   <si>
     <t>2023-02-05</t>
@@ -1022,7 +1022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F2A7B0-BEF2-4260-8257-31FC2B7FF305}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -1182,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F4A3639-CCA0-4A94-AD00-8D71C962DA75}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1240,27 +1240,27 @@
       <c r="A4" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="5" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1269,10 +1269,10 @@
         <v>42</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>109</v>
@@ -1289,7 +1289,7 @@
         <v>109</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75">
@@ -1317,7 +1317,7 @@
         <v>116</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
